--- a/West Bengal.xlsx
+++ b/West Bengal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
@@ -4032,9 +4032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K473"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="K473" sqref="K271:K473"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -36052,7 +36050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>

--- a/West Bengal.xlsx
+++ b/West Bengal.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
     <sheet name="2009" sheetId="2" r:id="rId2"/>
     <sheet name="2004" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6007" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6007" uniqueCount="1209">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -2887,9 +2887,6 @@
     <t xml:space="preserve">Ajoy Ghora </t>
   </si>
   <si>
-    <t>Berhampore</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tapas Kumar Chatterjee </t>
   </si>
   <si>
@@ -3076,9 +3073,6 @@
     <t xml:space="preserve">Hiten Barman </t>
   </si>
   <si>
-    <t>Cooch Behar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sailen Barma </t>
   </si>
   <si>
@@ -3584,9 +3578,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ashis Saha </t>
-  </si>
-  <si>
-    <t>Serampore</t>
   </si>
   <si>
     <t xml:space="preserve">Akbar Ali Khandoker </t>
@@ -4032,7 +4023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4068,7 +4061,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -22014,8 +22007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView topLeftCell="A342" workbookViewId="0">
-      <selection activeCell="I371" sqref="I371"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22052,7 +22045,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -36050,8 +36043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36088,7 +36081,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -38334,7 +38327,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>13</v>
@@ -38370,7 +38363,7 @@
         <v>66</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>13</v>
@@ -38403,10 +38396,10 @@
         <v>21</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>13</v>
@@ -38439,10 +38432,10 @@
         <v>21</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>13</v>
@@ -38475,10 +38468,10 @@
         <v>21</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -38514,7 +38507,7 @@
         <v>139</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -38547,10 +38540,10 @@
         <v>21</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>13</v>
@@ -38583,10 +38576,10 @@
         <v>21</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>13</v>
@@ -38622,7 +38615,7 @@
         <v>598</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>952</v>
+        <v>64</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>13</v>
@@ -38655,7 +38648,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>184</v>
@@ -38691,7 +38684,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>184</v>
@@ -38763,7 +38756,7 @@
         <v>21</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>184</v>
@@ -38799,7 +38792,7 @@
         <v>21</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>184</v>
@@ -38811,7 +38804,7 @@
         <v>30</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H77" s="3">
         <v>1029870</v>
@@ -38835,7 +38828,7 @@
         <v>21</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>184</v>
@@ -38871,7 +38864,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>208</v>
@@ -38907,7 +38900,7 @@
         <v>15</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>208</v>
@@ -38943,7 +38936,7 @@
         <v>21</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>208</v>
@@ -38979,7 +38972,7 @@
         <v>21</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>208</v>
@@ -39015,7 +39008,7 @@
         <v>21</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>208</v>
@@ -39051,7 +39044,7 @@
         <v>21</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>208</v>
@@ -39087,10 +39080,10 @@
         <v>10</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>13</v>
@@ -39123,10 +39116,10 @@
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>13</v>
@@ -39159,10 +39152,10 @@
         <v>21</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>13</v>
@@ -39195,10 +39188,10 @@
         <v>21</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>32</v>
@@ -39231,10 +39224,10 @@
         <v>21</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>13</v>
@@ -39270,7 +39263,7 @@
         <v>512</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>13</v>
@@ -39303,10 +39296,10 @@
         <v>15</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>13</v>
@@ -39339,10 +39332,10 @@
         <v>21</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>32</v>
@@ -39375,10 +39368,10 @@
         <v>21</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>13</v>
@@ -39411,10 +39404,10 @@
         <v>21</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>13</v>
@@ -39447,10 +39440,10 @@
         <v>21</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>13</v>
@@ -39483,10 +39476,10 @@
         <v>21</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>13</v>
@@ -39519,10 +39512,10 @@
         <v>21</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>32</v>
@@ -39555,10 +39548,10 @@
         <v>21</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>13</v>
@@ -39591,10 +39584,10 @@
         <v>21</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>13</v>
@@ -39627,10 +39620,10 @@
         <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>13</v>
@@ -39666,7 +39659,7 @@
         <v>616</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>13</v>
@@ -39699,10 +39692,10 @@
         <v>18</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>13</v>
@@ -39738,7 +39731,7 @@
         <v>400</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>13</v>
@@ -39771,10 +39764,10 @@
         <v>21</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>13</v>
@@ -39807,10 +39800,10 @@
         <v>21</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>13</v>
@@ -39843,10 +39836,10 @@
         <v>21</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>13</v>
@@ -39879,10 +39872,10 @@
         <v>21</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>13</v>
@@ -39915,10 +39908,10 @@
         <v>21</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>13</v>
@@ -39951,10 +39944,10 @@
         <v>21</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>13</v>
@@ -39987,10 +39980,10 @@
         <v>21</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>13</v>
@@ -40023,10 +40016,10 @@
         <v>21</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>13</v>
@@ -40059,10 +40052,10 @@
         <v>21</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>13</v>
@@ -40095,10 +40088,10 @@
         <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>13</v>
@@ -40134,7 +40127,7 @@
         <v>777</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>32</v>
@@ -40170,7 +40163,7 @@
         <v>778</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>13</v>
@@ -40203,10 +40196,10 @@
         <v>21</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>32</v>
@@ -40239,10 +40232,10 @@
         <v>21</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>13</v>
@@ -40275,10 +40268,10 @@
         <v>21</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>13</v>
@@ -40311,10 +40304,10 @@
         <v>21</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>32</v>
@@ -40347,10 +40340,10 @@
         <v>21</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>13</v>
@@ -40383,10 +40376,10 @@
         <v>21</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>13</v>
@@ -40419,10 +40412,10 @@
         <v>21</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>32</v>
@@ -40455,10 +40448,10 @@
         <v>21</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>32</v>
@@ -40491,10 +40484,10 @@
         <v>21</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>13</v>
@@ -40530,7 +40523,7 @@
         <v>774</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>13</v>
@@ -40563,10 +40556,10 @@
         <v>15</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>13</v>
@@ -40599,10 +40592,10 @@
         <v>21</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>13</v>
@@ -40635,10 +40628,10 @@
         <v>21</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>13</v>
@@ -40671,10 +40664,10 @@
         <v>21</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>13</v>
@@ -40707,10 +40700,10 @@
         <v>21</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>32</v>
@@ -40743,10 +40736,10 @@
         <v>10</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>13</v>
@@ -40782,7 +40775,7 @@
         <v>220</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>13</v>
@@ -40815,10 +40808,10 @@
         <v>21</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>13</v>
@@ -40851,10 +40844,10 @@
         <v>21</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>13</v>
@@ -40887,10 +40880,10 @@
         <v>21</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>13</v>
@@ -40923,10 +40916,10 @@
         <v>21</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>13</v>
@@ -40962,7 +40955,7 @@
         <v>223</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>13</v>
@@ -40995,10 +40988,10 @@
         <v>21</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>13</v>
@@ -41034,7 +41027,7 @@
         <v>226</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1015</v>
+        <v>216</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>13</v>
@@ -41103,7 +41096,7 @@
         <v>15</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>231</v>
@@ -41139,7 +41132,7 @@
         <v>21</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>231</v>
@@ -41175,7 +41168,7 @@
         <v>21</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>231</v>
@@ -41211,7 +41204,7 @@
         <v>21</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>231</v>
@@ -41247,7 +41240,7 @@
         <v>21</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>231</v>
@@ -41283,7 +41276,7 @@
         <v>21</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>231</v>
@@ -41319,7 +41312,7 @@
         <v>21</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>231</v>
@@ -41355,7 +41348,7 @@
         <v>21</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>231</v>
@@ -41391,7 +41384,7 @@
         <v>21</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>231</v>
@@ -41463,7 +41456,7 @@
         <v>15</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>247</v>
@@ -41499,7 +41492,7 @@
         <v>21</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>247</v>
@@ -41535,7 +41528,7 @@
         <v>21</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>247</v>
@@ -41571,7 +41564,7 @@
         <v>21</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>247</v>
@@ -41679,7 +41672,7 @@
         <v>21</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>247</v>
@@ -41751,7 +41744,7 @@
         <v>21</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>247</v>
@@ -41763,7 +41756,7 @@
         <v>50</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H159" s="3">
         <v>1102946</v>
@@ -41787,7 +41780,7 @@
         <v>21</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>247</v>
@@ -41823,7 +41816,7 @@
         <v>21</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>247</v>
@@ -41931,7 +41924,7 @@
         <v>21</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>264</v>
@@ -41967,7 +41960,7 @@
         <v>21</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>264</v>
@@ -42039,7 +42032,7 @@
         <v>21</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>264</v>
@@ -42075,7 +42068,7 @@
         <v>21</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>264</v>
@@ -42111,7 +42104,7 @@
         <v>21</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>264</v>
@@ -42147,10 +42140,10 @@
         <v>10</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>13</v>
@@ -42183,10 +42176,10 @@
         <v>15</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>13</v>
@@ -42219,10 +42212,10 @@
         <v>21</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>32</v>
@@ -42255,10 +42248,10 @@
         <v>21</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>13</v>
@@ -42267,7 +42260,7 @@
         <v>58</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H173" s="3">
         <v>1150939</v>
@@ -42291,10 +42284,10 @@
         <v>21</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>13</v>
@@ -42327,10 +42320,10 @@
         <v>21</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>13</v>
@@ -42363,10 +42356,10 @@
         <v>21</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>13</v>
@@ -42399,7 +42392,7 @@
         <v>10</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>285</v>
@@ -42435,7 +42428,7 @@
         <v>15</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>285</v>
@@ -42471,7 +42464,7 @@
         <v>21</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>285</v>
@@ -42507,7 +42500,7 @@
         <v>21</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>285</v>
@@ -42543,7 +42536,7 @@
         <v>21</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>285</v>
@@ -42615,7 +42608,7 @@
         <v>15</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>295</v>
@@ -42651,7 +42644,7 @@
         <v>18</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>295</v>
@@ -42687,7 +42680,7 @@
         <v>21</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>295</v>
@@ -42723,7 +42716,7 @@
         <v>21</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>295</v>
@@ -42735,7 +42728,7 @@
         <v>27</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H186" s="3">
         <v>1240427</v>
@@ -42759,7 +42752,7 @@
         <v>21</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>295</v>
@@ -42795,7 +42788,7 @@
         <v>21</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>295</v>
@@ -42831,7 +42824,7 @@
         <v>21</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>295</v>
@@ -42867,7 +42860,7 @@
         <v>21</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>295</v>
@@ -42903,7 +42896,7 @@
         <v>21</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>295</v>
@@ -42939,7 +42932,7 @@
         <v>21</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>295</v>
@@ -42975,7 +42968,7 @@
         <v>21</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>295</v>
@@ -43011,7 +43004,7 @@
         <v>21</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>295</v>
@@ -43047,7 +43040,7 @@
         <v>21</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>295</v>
@@ -43119,7 +43112,7 @@
         <v>15</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>312</v>
@@ -43155,7 +43148,7 @@
         <v>21</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>312</v>
@@ -43191,7 +43184,7 @@
         <v>21</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>312</v>
@@ -43227,7 +43220,7 @@
         <v>21</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>312</v>
@@ -43263,7 +43256,7 @@
         <v>21</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>312</v>
@@ -43299,7 +43292,7 @@
         <v>21</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>312</v>
@@ -43335,7 +43328,7 @@
         <v>21</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>312</v>
@@ -43371,7 +43364,7 @@
         <v>21</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>312</v>
@@ -43407,7 +43400,7 @@
         <v>21</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>312</v>
@@ -43443,7 +43436,7 @@
         <v>21</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>312</v>
@@ -43479,7 +43472,7 @@
         <v>10</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>326</v>
@@ -43515,7 +43508,7 @@
         <v>15</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>326</v>
@@ -43551,7 +43544,7 @@
         <v>21</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>326</v>
@@ -43623,7 +43616,7 @@
         <v>21</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>326</v>
@@ -43659,7 +43652,7 @@
         <v>21</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>326</v>
@@ -43731,7 +43724,7 @@
         <v>21</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>326</v>
@@ -43767,7 +43760,7 @@
         <v>21</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>326</v>
@@ -43803,7 +43796,7 @@
         <v>21</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>326</v>
@@ -43911,7 +43904,7 @@
         <v>21</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>338</v>
@@ -43947,7 +43940,7 @@
         <v>21</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>338</v>
@@ -43983,7 +43976,7 @@
         <v>21</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>338</v>
@@ -44055,7 +44048,7 @@
         <v>21</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>338</v>
@@ -44091,7 +44084,7 @@
         <v>21</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>338</v>
@@ -44127,7 +44120,7 @@
         <v>21</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>338</v>
@@ -44163,7 +44156,7 @@
         <v>10</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>360</v>
@@ -44199,7 +44192,7 @@
         <v>15</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>360</v>
@@ -44235,7 +44228,7 @@
         <v>21</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>360</v>
@@ -44271,7 +44264,7 @@
         <v>21</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>360</v>
@@ -44307,7 +44300,7 @@
         <v>21</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>360</v>
@@ -44343,7 +44336,7 @@
         <v>21</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>360</v>
@@ -44379,7 +44372,7 @@
         <v>21</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>360</v>
@@ -44415,10 +44408,10 @@
         <v>10</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>13</v>
@@ -44451,10 +44444,10 @@
         <v>15</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>13</v>
@@ -44487,10 +44480,10 @@
         <v>21</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>13</v>
@@ -44526,7 +44519,7 @@
         <v>614</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>13</v>
@@ -44559,10 +44552,10 @@
         <v>21</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>13</v>
@@ -44595,10 +44588,10 @@
         <v>21</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>13</v>
@@ -44631,10 +44624,10 @@
         <v>10</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>13</v>
@@ -44667,10 +44660,10 @@
         <v>15</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>13</v>
@@ -44706,7 +44699,7 @@
         <v>740</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>13</v>
@@ -44739,10 +44732,10 @@
         <v>21</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>13</v>
@@ -44775,10 +44768,10 @@
         <v>21</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>13</v>
@@ -44811,10 +44804,10 @@
         <v>21</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>13</v>
@@ -44847,10 +44840,10 @@
         <v>21</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>13</v>
@@ -44883,10 +44876,10 @@
         <v>21</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>13</v>
@@ -44895,7 +44888,7 @@
         <v>52</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H246" s="3">
         <v>1169525</v>
@@ -44919,10 +44912,10 @@
         <v>21</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>32</v>
@@ -44955,10 +44948,10 @@
         <v>21</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>13</v>
@@ -44991,10 +44984,10 @@
         <v>21</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>13</v>
@@ -45027,10 +45020,10 @@
         <v>21</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>13</v>
@@ -45066,7 +45059,7 @@
         <v>800</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>32</v>
@@ -45102,7 +45095,7 @@
         <v>422</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>13</v>
@@ -45135,10 +45128,10 @@
         <v>21</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>13</v>
@@ -45171,10 +45164,10 @@
         <v>21</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>32</v>
@@ -45207,10 +45200,10 @@
         <v>21</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>13</v>
@@ -45243,10 +45236,10 @@
         <v>21</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>13</v>
@@ -45279,10 +45272,10 @@
         <v>21</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>13</v>
@@ -45315,10 +45308,10 @@
         <v>21</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>13</v>
@@ -45351,10 +45344,10 @@
         <v>21</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>13</v>
@@ -45387,10 +45380,10 @@
         <v>10</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>13</v>
@@ -45423,10 +45416,10 @@
         <v>15</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>13</v>
@@ -45462,7 +45455,7 @@
         <v>550</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>13</v>
@@ -45498,7 +45491,7 @@
         <v>437</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>13</v>
@@ -45531,10 +45524,10 @@
         <v>21</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>13</v>
@@ -45567,10 +45560,10 @@
         <v>21</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>13</v>
@@ -45603,10 +45596,10 @@
         <v>21</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>13</v>
@@ -45639,10 +45632,10 @@
         <v>21</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>13</v>
@@ -45678,7 +45671,7 @@
         <v>819</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>13</v>
@@ -45714,7 +45707,7 @@
         <v>438</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>13</v>
@@ -45783,7 +45776,7 @@
         <v>15</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>465</v>
@@ -45819,7 +45812,7 @@
         <v>21</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>465</v>
@@ -45855,7 +45848,7 @@
         <v>21</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>465</v>
@@ -45891,7 +45884,7 @@
         <v>21</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>465</v>
@@ -45927,7 +45920,7 @@
         <v>21</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>465</v>
@@ -45966,7 +45959,7 @@
         <v>477</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>13</v>
@@ -45999,10 +45992,10 @@
         <v>15</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>13</v>
@@ -46035,10 +46028,10 @@
         <v>21</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>13</v>
@@ -46071,10 +46064,10 @@
         <v>21</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>13</v>
@@ -46107,10 +46100,10 @@
         <v>21</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>32</v>
@@ -46143,10 +46136,10 @@
         <v>21</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>13</v>
@@ -46179,10 +46172,10 @@
         <v>21</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>13</v>
@@ -46215,10 +46208,10 @@
         <v>21</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>13</v>
@@ -46227,7 +46220,7 @@
         <v>34</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H283" s="3">
         <v>1152887</v>
@@ -46287,7 +46280,7 @@
         <v>15</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>487</v>
@@ -46395,7 +46388,7 @@
         <v>21</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>487</v>
@@ -46407,7 +46400,7 @@
         <v>57</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H288" s="3">
         <v>1197170</v>
@@ -46431,7 +46424,7 @@
         <v>21</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>487</v>
@@ -46467,7 +46460,7 @@
         <v>21</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>487</v>
@@ -46503,7 +46496,7 @@
         <v>21</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>487</v>
@@ -46575,7 +46568,7 @@
         <v>21</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>487</v>
@@ -46611,10 +46604,10 @@
         <v>10</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>13</v>
@@ -46647,10 +46640,10 @@
         <v>15</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>32</v>
@@ -46683,10 +46676,10 @@
         <v>21</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>13</v>
@@ -46719,10 +46712,10 @@
         <v>21</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>13</v>
@@ -46755,10 +46748,10 @@
         <v>21</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>13</v>
@@ -46791,10 +46784,10 @@
         <v>21</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>13</v>
@@ -46827,10 +46820,10 @@
         <v>21</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>13</v>
@@ -46863,10 +46856,10 @@
         <v>21</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>13</v>
@@ -46899,10 +46892,10 @@
         <v>21</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>13</v>
@@ -46938,7 +46931,7 @@
         <v>706</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>13</v>
@@ -46971,10 +46964,10 @@
         <v>15</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>32</v>
@@ -47007,10 +47000,10 @@
         <v>21</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>13</v>
@@ -47043,7 +47036,7 @@
         <v>10</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>500</v>
@@ -47115,7 +47108,7 @@
         <v>18</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>500</v>
@@ -47187,7 +47180,7 @@
         <v>21</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>500</v>
@@ -47223,7 +47216,7 @@
         <v>21</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>500</v>
@@ -47259,7 +47252,7 @@
         <v>21</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>500</v>
@@ -47307,7 +47300,7 @@
         <v>60</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H313" s="3">
         <v>992438</v>
@@ -47331,7 +47324,7 @@
         <v>21</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>500</v>
@@ -47367,7 +47360,7 @@
         <v>21</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>500</v>
@@ -47403,7 +47396,7 @@
         <v>21</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>500</v>
@@ -47439,7 +47432,7 @@
         <v>10</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>513</v>
@@ -47475,7 +47468,7 @@
         <v>15</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>513</v>
@@ -47511,7 +47504,7 @@
         <v>21</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>513</v>
@@ -47583,7 +47576,7 @@
         <v>21</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>513</v>
@@ -47655,7 +47648,7 @@
         <v>21</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>513</v>
@@ -47691,7 +47684,7 @@
         <v>21</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>513</v>
@@ -47727,7 +47720,7 @@
         <v>21</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>513</v>
@@ -47766,7 +47759,7 @@
         <v>877</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>13</v>
@@ -47799,10 +47792,10 @@
         <v>15</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>13</v>
@@ -47835,10 +47828,10 @@
         <v>21</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>13</v>
@@ -47871,10 +47864,10 @@
         <v>21</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>13</v>
@@ -47907,10 +47900,10 @@
         <v>21</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>32</v>
@@ -47943,10 +47936,10 @@
         <v>21</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>13</v>
@@ -47979,10 +47972,10 @@
         <v>21</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>13</v>
@@ -48015,10 +48008,10 @@
         <v>21</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>13</v>
@@ -48051,10 +48044,10 @@
         <v>21</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>13</v>
@@ -48087,10 +48080,10 @@
         <v>21</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>1185</v>
+        <v>537</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>13</v>
@@ -48099,7 +48092,7 @@
         <v>33</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H335" s="3">
         <v>1285398</v>
@@ -48123,7 +48116,7 @@
         <v>10</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>548</v>
@@ -48159,7 +48152,7 @@
         <v>15</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>548</v>
@@ -48195,7 +48188,7 @@
         <v>21</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>548</v>
@@ -48231,7 +48224,7 @@
         <v>21</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>548</v>
@@ -48267,7 +48260,7 @@
         <v>21</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>548</v>
@@ -48303,7 +48296,7 @@
         <v>21</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>548</v>
@@ -48339,7 +48332,7 @@
         <v>21</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>548</v>
@@ -48447,7 +48440,7 @@
         <v>15</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>559</v>
@@ -48483,7 +48476,7 @@
         <v>21</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>559</v>
@@ -48519,7 +48512,7 @@
         <v>21</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>559</v>
@@ -48627,7 +48620,7 @@
         <v>21</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>559</v>
@@ -48663,7 +48656,7 @@
         <v>21</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>559</v>
@@ -48702,7 +48695,7 @@
         <v>199</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>32</v>
@@ -48735,10 +48728,10 @@
         <v>15</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>13</v>
@@ -48771,10 +48764,10 @@
         <v>21</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>13</v>
@@ -48807,10 +48800,10 @@
         <v>21</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>13</v>
@@ -48843,10 +48836,10 @@
         <v>21</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>13</v>
@@ -48998,591 +48991,569 @@
     <hyperlink ref="C63" r:id="rId123"/>
     <hyperlink ref="D63" r:id="rId124"/>
     <hyperlink ref="C64" r:id="rId125"/>
-    <hyperlink ref="D64" r:id="rId126"/>
-    <hyperlink ref="C65" r:id="rId127"/>
-    <hyperlink ref="D65" r:id="rId128"/>
-    <hyperlink ref="C66" r:id="rId129"/>
-    <hyperlink ref="D66" r:id="rId130"/>
-    <hyperlink ref="C67" r:id="rId131"/>
-    <hyperlink ref="D67" r:id="rId132"/>
-    <hyperlink ref="C68" r:id="rId133"/>
-    <hyperlink ref="D68" r:id="rId134"/>
-    <hyperlink ref="C69" r:id="rId135"/>
-    <hyperlink ref="D69" r:id="rId136"/>
-    <hyperlink ref="C70" r:id="rId137"/>
-    <hyperlink ref="D70" r:id="rId138"/>
-    <hyperlink ref="C71" r:id="rId139"/>
-    <hyperlink ref="D71" r:id="rId140"/>
-    <hyperlink ref="C72" r:id="rId141"/>
-    <hyperlink ref="D72" r:id="rId142"/>
-    <hyperlink ref="C73" r:id="rId143"/>
-    <hyperlink ref="D73" r:id="rId144"/>
-    <hyperlink ref="C74" r:id="rId145"/>
-    <hyperlink ref="D74" r:id="rId146"/>
-    <hyperlink ref="C75" r:id="rId147"/>
-    <hyperlink ref="D75" r:id="rId148"/>
-    <hyperlink ref="C76" r:id="rId149"/>
-    <hyperlink ref="D76" r:id="rId150"/>
-    <hyperlink ref="C77" r:id="rId151"/>
-    <hyperlink ref="D77" r:id="rId152"/>
-    <hyperlink ref="C78" r:id="rId153"/>
-    <hyperlink ref="D78" r:id="rId154"/>
-    <hyperlink ref="C79" r:id="rId155"/>
-    <hyperlink ref="D79" r:id="rId156"/>
-    <hyperlink ref="C80" r:id="rId157"/>
-    <hyperlink ref="D80" r:id="rId158"/>
-    <hyperlink ref="C81" r:id="rId159"/>
-    <hyperlink ref="D81" r:id="rId160"/>
-    <hyperlink ref="C82" r:id="rId161"/>
-    <hyperlink ref="D82" r:id="rId162"/>
-    <hyperlink ref="C83" r:id="rId163"/>
-    <hyperlink ref="D83" r:id="rId164"/>
-    <hyperlink ref="C84" r:id="rId165"/>
-    <hyperlink ref="D84" r:id="rId166"/>
-    <hyperlink ref="C85" r:id="rId167"/>
-    <hyperlink ref="D85" r:id="rId168"/>
-    <hyperlink ref="C86" r:id="rId169"/>
-    <hyperlink ref="D86" r:id="rId170"/>
-    <hyperlink ref="C87" r:id="rId171"/>
-    <hyperlink ref="D87" r:id="rId172"/>
-    <hyperlink ref="C88" r:id="rId173"/>
-    <hyperlink ref="D88" r:id="rId174"/>
-    <hyperlink ref="C89" r:id="rId175"/>
-    <hyperlink ref="D89" r:id="rId176"/>
-    <hyperlink ref="C90" r:id="rId177"/>
-    <hyperlink ref="D90" r:id="rId178"/>
-    <hyperlink ref="C91" r:id="rId179"/>
-    <hyperlink ref="D91" r:id="rId180"/>
-    <hyperlink ref="C92" r:id="rId181"/>
-    <hyperlink ref="D92" r:id="rId182"/>
-    <hyperlink ref="C93" r:id="rId183"/>
-    <hyperlink ref="D93" r:id="rId184"/>
-    <hyperlink ref="C94" r:id="rId185"/>
-    <hyperlink ref="D94" r:id="rId186"/>
-    <hyperlink ref="C95" r:id="rId187"/>
-    <hyperlink ref="D95" r:id="rId188"/>
-    <hyperlink ref="C96" r:id="rId189"/>
-    <hyperlink ref="D96" r:id="rId190"/>
-    <hyperlink ref="C97" r:id="rId191"/>
-    <hyperlink ref="D97" r:id="rId192"/>
-    <hyperlink ref="C98" r:id="rId193"/>
-    <hyperlink ref="D98" r:id="rId194"/>
-    <hyperlink ref="C99" r:id="rId195"/>
-    <hyperlink ref="D99" r:id="rId196"/>
-    <hyperlink ref="C100" r:id="rId197"/>
-    <hyperlink ref="D100" r:id="rId198"/>
-    <hyperlink ref="C101" r:id="rId199"/>
-    <hyperlink ref="D101" r:id="rId200"/>
-    <hyperlink ref="C102" r:id="rId201"/>
-    <hyperlink ref="D102" r:id="rId202"/>
-    <hyperlink ref="C103" r:id="rId203"/>
-    <hyperlink ref="D103" r:id="rId204"/>
-    <hyperlink ref="C104" r:id="rId205"/>
-    <hyperlink ref="D104" r:id="rId206"/>
-    <hyperlink ref="C105" r:id="rId207"/>
-    <hyperlink ref="D105" r:id="rId208"/>
-    <hyperlink ref="C106" r:id="rId209"/>
-    <hyperlink ref="D106" r:id="rId210"/>
-    <hyperlink ref="C107" r:id="rId211"/>
-    <hyperlink ref="D107" r:id="rId212"/>
-    <hyperlink ref="C108" r:id="rId213"/>
-    <hyperlink ref="D108" r:id="rId214"/>
-    <hyperlink ref="C109" r:id="rId215"/>
-    <hyperlink ref="D109" r:id="rId216"/>
-    <hyperlink ref="C110" r:id="rId217"/>
-    <hyperlink ref="D110" r:id="rId218"/>
-    <hyperlink ref="C111" r:id="rId219"/>
-    <hyperlink ref="D111" r:id="rId220"/>
-    <hyperlink ref="C112" r:id="rId221"/>
-    <hyperlink ref="D112" r:id="rId222"/>
-    <hyperlink ref="C113" r:id="rId223"/>
-    <hyperlink ref="D113" r:id="rId224"/>
-    <hyperlink ref="C114" r:id="rId225"/>
-    <hyperlink ref="D114" r:id="rId226"/>
-    <hyperlink ref="C115" r:id="rId227"/>
-    <hyperlink ref="D115" r:id="rId228"/>
-    <hyperlink ref="C116" r:id="rId229"/>
-    <hyperlink ref="D116" r:id="rId230"/>
-    <hyperlink ref="C117" r:id="rId231"/>
-    <hyperlink ref="D117" r:id="rId232"/>
-    <hyperlink ref="C118" r:id="rId233"/>
-    <hyperlink ref="D118" r:id="rId234"/>
-    <hyperlink ref="C119" r:id="rId235"/>
-    <hyperlink ref="D119" r:id="rId236"/>
-    <hyperlink ref="C120" r:id="rId237"/>
-    <hyperlink ref="D120" r:id="rId238"/>
-    <hyperlink ref="C121" r:id="rId239"/>
-    <hyperlink ref="D121" r:id="rId240"/>
-    <hyperlink ref="C122" r:id="rId241"/>
-    <hyperlink ref="D122" r:id="rId242"/>
-    <hyperlink ref="C123" r:id="rId243"/>
-    <hyperlink ref="D123" r:id="rId244"/>
-    <hyperlink ref="C124" r:id="rId245"/>
-    <hyperlink ref="D124" r:id="rId246"/>
-    <hyperlink ref="C125" r:id="rId247"/>
-    <hyperlink ref="D125" r:id="rId248"/>
-    <hyperlink ref="C126" r:id="rId249"/>
-    <hyperlink ref="D126" r:id="rId250"/>
-    <hyperlink ref="C127" r:id="rId251"/>
-    <hyperlink ref="D127" r:id="rId252"/>
-    <hyperlink ref="C128" r:id="rId253"/>
-    <hyperlink ref="D128" r:id="rId254"/>
-    <hyperlink ref="C129" r:id="rId255"/>
-    <hyperlink ref="D129" r:id="rId256"/>
-    <hyperlink ref="C130" r:id="rId257"/>
-    <hyperlink ref="D130" r:id="rId258"/>
-    <hyperlink ref="C131" r:id="rId259"/>
-    <hyperlink ref="D131" r:id="rId260"/>
-    <hyperlink ref="C132" r:id="rId261"/>
-    <hyperlink ref="D132" r:id="rId262"/>
-    <hyperlink ref="C133" r:id="rId263"/>
-    <hyperlink ref="D133" r:id="rId264"/>
-    <hyperlink ref="C134" r:id="rId265"/>
-    <hyperlink ref="D134" r:id="rId266"/>
-    <hyperlink ref="C135" r:id="rId267"/>
-    <hyperlink ref="D135" r:id="rId268"/>
-    <hyperlink ref="C136" r:id="rId269"/>
-    <hyperlink ref="D136" r:id="rId270"/>
-    <hyperlink ref="C137" r:id="rId271"/>
-    <hyperlink ref="D137" r:id="rId272"/>
-    <hyperlink ref="C138" r:id="rId273"/>
-    <hyperlink ref="D138" r:id="rId274"/>
-    <hyperlink ref="C139" r:id="rId275"/>
-    <hyperlink ref="D139" r:id="rId276"/>
-    <hyperlink ref="C140" r:id="rId277"/>
-    <hyperlink ref="D140" r:id="rId278"/>
-    <hyperlink ref="C141" r:id="rId279"/>
-    <hyperlink ref="D141" r:id="rId280"/>
-    <hyperlink ref="C142" r:id="rId281"/>
-    <hyperlink ref="D142" r:id="rId282"/>
-    <hyperlink ref="C143" r:id="rId283"/>
-    <hyperlink ref="D143" r:id="rId284"/>
-    <hyperlink ref="C144" r:id="rId285"/>
-    <hyperlink ref="D144" r:id="rId286"/>
-    <hyperlink ref="C145" r:id="rId287"/>
-    <hyperlink ref="D145" r:id="rId288"/>
-    <hyperlink ref="C146" r:id="rId289"/>
-    <hyperlink ref="D146" r:id="rId290"/>
-    <hyperlink ref="C147" r:id="rId291"/>
-    <hyperlink ref="D147" r:id="rId292"/>
-    <hyperlink ref="C148" r:id="rId293"/>
-    <hyperlink ref="D148" r:id="rId294"/>
-    <hyperlink ref="C149" r:id="rId295"/>
-    <hyperlink ref="D149" r:id="rId296"/>
-    <hyperlink ref="C150" r:id="rId297"/>
-    <hyperlink ref="D150" r:id="rId298"/>
-    <hyperlink ref="C151" r:id="rId299"/>
-    <hyperlink ref="D151" r:id="rId300"/>
-    <hyperlink ref="C152" r:id="rId301"/>
-    <hyperlink ref="D152" r:id="rId302"/>
-    <hyperlink ref="C153" r:id="rId303"/>
-    <hyperlink ref="D153" r:id="rId304"/>
-    <hyperlink ref="C154" r:id="rId305"/>
-    <hyperlink ref="D154" r:id="rId306"/>
-    <hyperlink ref="C155" r:id="rId307"/>
-    <hyperlink ref="D155" r:id="rId308"/>
-    <hyperlink ref="C156" r:id="rId309"/>
-    <hyperlink ref="D156" r:id="rId310"/>
-    <hyperlink ref="C157" r:id="rId311"/>
-    <hyperlink ref="D157" r:id="rId312"/>
-    <hyperlink ref="C158" r:id="rId313"/>
-    <hyperlink ref="D158" r:id="rId314"/>
-    <hyperlink ref="C159" r:id="rId315"/>
-    <hyperlink ref="D159" r:id="rId316"/>
-    <hyperlink ref="C160" r:id="rId317"/>
-    <hyperlink ref="D160" r:id="rId318"/>
-    <hyperlink ref="C161" r:id="rId319"/>
-    <hyperlink ref="D161" r:id="rId320"/>
-    <hyperlink ref="C162" r:id="rId321"/>
-    <hyperlink ref="D162" r:id="rId322"/>
-    <hyperlink ref="C163" r:id="rId323"/>
-    <hyperlink ref="D163" r:id="rId324"/>
-    <hyperlink ref="C164" r:id="rId325"/>
-    <hyperlink ref="D164" r:id="rId326"/>
-    <hyperlink ref="C165" r:id="rId327"/>
-    <hyperlink ref="D165" r:id="rId328"/>
-    <hyperlink ref="C166" r:id="rId329"/>
-    <hyperlink ref="D166" r:id="rId330"/>
-    <hyperlink ref="C167" r:id="rId331"/>
-    <hyperlink ref="D167" r:id="rId332"/>
-    <hyperlink ref="C168" r:id="rId333"/>
-    <hyperlink ref="D168" r:id="rId334"/>
-    <hyperlink ref="C169" r:id="rId335"/>
-    <hyperlink ref="D169" r:id="rId336"/>
-    <hyperlink ref="C170" r:id="rId337"/>
-    <hyperlink ref="D170" r:id="rId338"/>
-    <hyperlink ref="C171" r:id="rId339"/>
-    <hyperlink ref="D171" r:id="rId340"/>
-    <hyperlink ref="C172" r:id="rId341"/>
-    <hyperlink ref="D172" r:id="rId342"/>
-    <hyperlink ref="C173" r:id="rId343"/>
-    <hyperlink ref="D173" r:id="rId344"/>
-    <hyperlink ref="C174" r:id="rId345"/>
-    <hyperlink ref="D174" r:id="rId346"/>
-    <hyperlink ref="C175" r:id="rId347"/>
-    <hyperlink ref="D175" r:id="rId348"/>
-    <hyperlink ref="C176" r:id="rId349"/>
-    <hyperlink ref="D176" r:id="rId350"/>
-    <hyperlink ref="C177" r:id="rId351"/>
-    <hyperlink ref="D177" r:id="rId352"/>
-    <hyperlink ref="C178" r:id="rId353"/>
-    <hyperlink ref="D178" r:id="rId354"/>
-    <hyperlink ref="C179" r:id="rId355"/>
-    <hyperlink ref="D179" r:id="rId356"/>
-    <hyperlink ref="C180" r:id="rId357"/>
-    <hyperlink ref="D180" r:id="rId358"/>
-    <hyperlink ref="C181" r:id="rId359"/>
-    <hyperlink ref="D181" r:id="rId360"/>
-    <hyperlink ref="C182" r:id="rId361"/>
-    <hyperlink ref="D182" r:id="rId362"/>
-    <hyperlink ref="C183" r:id="rId363"/>
-    <hyperlink ref="D183" r:id="rId364"/>
-    <hyperlink ref="C184" r:id="rId365"/>
-    <hyperlink ref="D184" r:id="rId366"/>
-    <hyperlink ref="C185" r:id="rId367"/>
-    <hyperlink ref="D185" r:id="rId368"/>
-    <hyperlink ref="C186" r:id="rId369"/>
-    <hyperlink ref="D186" r:id="rId370"/>
-    <hyperlink ref="C187" r:id="rId371"/>
-    <hyperlink ref="D187" r:id="rId372"/>
-    <hyperlink ref="C188" r:id="rId373"/>
-    <hyperlink ref="D188" r:id="rId374"/>
-    <hyperlink ref="C189" r:id="rId375"/>
-    <hyperlink ref="D189" r:id="rId376"/>
-    <hyperlink ref="C190" r:id="rId377"/>
-    <hyperlink ref="D190" r:id="rId378"/>
-    <hyperlink ref="C191" r:id="rId379"/>
-    <hyperlink ref="D191" r:id="rId380"/>
-    <hyperlink ref="C192" r:id="rId381"/>
-    <hyperlink ref="D192" r:id="rId382"/>
-    <hyperlink ref="C193" r:id="rId383"/>
-    <hyperlink ref="D193" r:id="rId384"/>
-    <hyperlink ref="C194" r:id="rId385"/>
-    <hyperlink ref="D194" r:id="rId386"/>
-    <hyperlink ref="C195" r:id="rId387"/>
-    <hyperlink ref="D195" r:id="rId388"/>
-    <hyperlink ref="C196" r:id="rId389"/>
-    <hyperlink ref="D196" r:id="rId390"/>
-    <hyperlink ref="C197" r:id="rId391"/>
-    <hyperlink ref="D197" r:id="rId392"/>
-    <hyperlink ref="C198" r:id="rId393"/>
-    <hyperlink ref="D198" r:id="rId394"/>
-    <hyperlink ref="C199" r:id="rId395"/>
-    <hyperlink ref="D199" r:id="rId396"/>
-    <hyperlink ref="C200" r:id="rId397"/>
-    <hyperlink ref="D200" r:id="rId398"/>
-    <hyperlink ref="C201" r:id="rId399"/>
-    <hyperlink ref="D201" r:id="rId400"/>
-    <hyperlink ref="C202" r:id="rId401"/>
-    <hyperlink ref="D202" r:id="rId402"/>
-    <hyperlink ref="C203" r:id="rId403"/>
-    <hyperlink ref="D203" r:id="rId404"/>
-    <hyperlink ref="C204" r:id="rId405"/>
-    <hyperlink ref="D204" r:id="rId406"/>
-    <hyperlink ref="C205" r:id="rId407"/>
-    <hyperlink ref="D205" r:id="rId408"/>
-    <hyperlink ref="C206" r:id="rId409"/>
-    <hyperlink ref="D206" r:id="rId410"/>
-    <hyperlink ref="C207" r:id="rId411"/>
-    <hyperlink ref="D207" r:id="rId412"/>
-    <hyperlink ref="C208" r:id="rId413"/>
-    <hyperlink ref="D208" r:id="rId414"/>
-    <hyperlink ref="C209" r:id="rId415"/>
-    <hyperlink ref="D209" r:id="rId416"/>
-    <hyperlink ref="C210" r:id="rId417"/>
-    <hyperlink ref="D210" r:id="rId418"/>
-    <hyperlink ref="C211" r:id="rId419"/>
-    <hyperlink ref="D211" r:id="rId420"/>
-    <hyperlink ref="C212" r:id="rId421"/>
-    <hyperlink ref="D212" r:id="rId422"/>
-    <hyperlink ref="C213" r:id="rId423"/>
-    <hyperlink ref="D213" r:id="rId424"/>
-    <hyperlink ref="C214" r:id="rId425"/>
-    <hyperlink ref="D214" r:id="rId426"/>
-    <hyperlink ref="C215" r:id="rId427"/>
-    <hyperlink ref="D215" r:id="rId428"/>
-    <hyperlink ref="C216" r:id="rId429"/>
-    <hyperlink ref="D216" r:id="rId430"/>
-    <hyperlink ref="C217" r:id="rId431"/>
-    <hyperlink ref="D217" r:id="rId432"/>
-    <hyperlink ref="C218" r:id="rId433"/>
-    <hyperlink ref="D218" r:id="rId434"/>
-    <hyperlink ref="C219" r:id="rId435"/>
-    <hyperlink ref="D219" r:id="rId436"/>
-    <hyperlink ref="C220" r:id="rId437"/>
-    <hyperlink ref="D220" r:id="rId438"/>
-    <hyperlink ref="C221" r:id="rId439"/>
-    <hyperlink ref="D221" r:id="rId440"/>
-    <hyperlink ref="C222" r:id="rId441"/>
-    <hyperlink ref="D222" r:id="rId442"/>
-    <hyperlink ref="C223" r:id="rId443"/>
-    <hyperlink ref="D223" r:id="rId444"/>
-    <hyperlink ref="C224" r:id="rId445"/>
-    <hyperlink ref="D224" r:id="rId446"/>
-    <hyperlink ref="C225" r:id="rId447"/>
-    <hyperlink ref="D225" r:id="rId448"/>
-    <hyperlink ref="C226" r:id="rId449"/>
-    <hyperlink ref="D226" r:id="rId450"/>
-    <hyperlink ref="C227" r:id="rId451"/>
-    <hyperlink ref="D227" r:id="rId452"/>
-    <hyperlink ref="C228" r:id="rId453"/>
-    <hyperlink ref="D228" r:id="rId454"/>
-    <hyperlink ref="C229" r:id="rId455"/>
-    <hyperlink ref="D229" r:id="rId456"/>
-    <hyperlink ref="C230" r:id="rId457"/>
-    <hyperlink ref="D230" r:id="rId458"/>
-    <hyperlink ref="C231" r:id="rId459"/>
-    <hyperlink ref="D231" r:id="rId460"/>
-    <hyperlink ref="C232" r:id="rId461"/>
-    <hyperlink ref="D232" r:id="rId462"/>
-    <hyperlink ref="C233" r:id="rId463"/>
-    <hyperlink ref="D233" r:id="rId464"/>
-    <hyperlink ref="C234" r:id="rId465"/>
-    <hyperlink ref="D234" r:id="rId466"/>
-    <hyperlink ref="C235" r:id="rId467"/>
-    <hyperlink ref="D235" r:id="rId468"/>
-    <hyperlink ref="C236" r:id="rId469"/>
-    <hyperlink ref="D236" r:id="rId470"/>
-    <hyperlink ref="C237" r:id="rId471"/>
-    <hyperlink ref="D237" r:id="rId472"/>
-    <hyperlink ref="C238" r:id="rId473"/>
-    <hyperlink ref="D238" r:id="rId474"/>
-    <hyperlink ref="C239" r:id="rId475"/>
-    <hyperlink ref="D239" r:id="rId476"/>
-    <hyperlink ref="C240" r:id="rId477"/>
-    <hyperlink ref="D240" r:id="rId478"/>
-    <hyperlink ref="C241" r:id="rId479"/>
-    <hyperlink ref="D241" r:id="rId480"/>
-    <hyperlink ref="C242" r:id="rId481"/>
-    <hyperlink ref="D242" r:id="rId482"/>
-    <hyperlink ref="C243" r:id="rId483"/>
-    <hyperlink ref="D243" r:id="rId484"/>
-    <hyperlink ref="C244" r:id="rId485"/>
-    <hyperlink ref="D244" r:id="rId486"/>
-    <hyperlink ref="C245" r:id="rId487"/>
-    <hyperlink ref="D245" r:id="rId488"/>
-    <hyperlink ref="C246" r:id="rId489"/>
-    <hyperlink ref="D246" r:id="rId490"/>
-    <hyperlink ref="C247" r:id="rId491"/>
-    <hyperlink ref="D247" r:id="rId492"/>
-    <hyperlink ref="C248" r:id="rId493"/>
-    <hyperlink ref="D248" r:id="rId494"/>
-    <hyperlink ref="C249" r:id="rId495"/>
-    <hyperlink ref="D249" r:id="rId496"/>
-    <hyperlink ref="C250" r:id="rId497"/>
-    <hyperlink ref="D250" r:id="rId498"/>
-    <hyperlink ref="C251" r:id="rId499"/>
-    <hyperlink ref="D251" r:id="rId500"/>
-    <hyperlink ref="C252" r:id="rId501"/>
-    <hyperlink ref="D252" r:id="rId502"/>
-    <hyperlink ref="C253" r:id="rId503"/>
-    <hyperlink ref="D253" r:id="rId504"/>
-    <hyperlink ref="C254" r:id="rId505"/>
-    <hyperlink ref="D254" r:id="rId506"/>
-    <hyperlink ref="C255" r:id="rId507"/>
-    <hyperlink ref="D255" r:id="rId508"/>
-    <hyperlink ref="C256" r:id="rId509"/>
-    <hyperlink ref="D256" r:id="rId510"/>
-    <hyperlink ref="C257" r:id="rId511"/>
-    <hyperlink ref="D257" r:id="rId512"/>
-    <hyperlink ref="C258" r:id="rId513"/>
-    <hyperlink ref="D258" r:id="rId514"/>
-    <hyperlink ref="C259" r:id="rId515"/>
-    <hyperlink ref="D259" r:id="rId516"/>
-    <hyperlink ref="C260" r:id="rId517"/>
-    <hyperlink ref="D260" r:id="rId518"/>
-    <hyperlink ref="C261" r:id="rId519"/>
-    <hyperlink ref="D261" r:id="rId520"/>
-    <hyperlink ref="C262" r:id="rId521"/>
-    <hyperlink ref="D262" r:id="rId522"/>
-    <hyperlink ref="C263" r:id="rId523"/>
-    <hyperlink ref="D263" r:id="rId524"/>
-    <hyperlink ref="C264" r:id="rId525"/>
-    <hyperlink ref="D264" r:id="rId526"/>
-    <hyperlink ref="C265" r:id="rId527"/>
-    <hyperlink ref="D265" r:id="rId528"/>
-    <hyperlink ref="C266" r:id="rId529"/>
-    <hyperlink ref="D266" r:id="rId530"/>
-    <hyperlink ref="C267" r:id="rId531"/>
-    <hyperlink ref="D267" r:id="rId532"/>
-    <hyperlink ref="C268" r:id="rId533"/>
-    <hyperlink ref="D268" r:id="rId534"/>
-    <hyperlink ref="C269" r:id="rId535"/>
-    <hyperlink ref="D269" r:id="rId536"/>
-    <hyperlink ref="C270" r:id="rId537"/>
-    <hyperlink ref="D270" r:id="rId538"/>
-    <hyperlink ref="C271" r:id="rId539"/>
-    <hyperlink ref="D271" r:id="rId540"/>
-    <hyperlink ref="C272" r:id="rId541"/>
-    <hyperlink ref="D272" r:id="rId542"/>
-    <hyperlink ref="C273" r:id="rId543"/>
-    <hyperlink ref="D273" r:id="rId544"/>
-    <hyperlink ref="C274" r:id="rId545"/>
-    <hyperlink ref="D274" r:id="rId546"/>
-    <hyperlink ref="C275" r:id="rId547"/>
-    <hyperlink ref="D275" r:id="rId548"/>
-    <hyperlink ref="C276" r:id="rId549"/>
-    <hyperlink ref="D276" r:id="rId550"/>
-    <hyperlink ref="C277" r:id="rId551"/>
-    <hyperlink ref="D277" r:id="rId552"/>
-    <hyperlink ref="C278" r:id="rId553"/>
-    <hyperlink ref="D278" r:id="rId554"/>
-    <hyperlink ref="C279" r:id="rId555"/>
-    <hyperlink ref="D279" r:id="rId556"/>
-    <hyperlink ref="C280" r:id="rId557"/>
-    <hyperlink ref="D280" r:id="rId558"/>
-    <hyperlink ref="C281" r:id="rId559"/>
-    <hyperlink ref="D281" r:id="rId560"/>
-    <hyperlink ref="C282" r:id="rId561"/>
-    <hyperlink ref="D282" r:id="rId562"/>
-    <hyperlink ref="C283" r:id="rId563"/>
-    <hyperlink ref="D283" r:id="rId564"/>
-    <hyperlink ref="C284" r:id="rId565"/>
-    <hyperlink ref="D284" r:id="rId566"/>
-    <hyperlink ref="C285" r:id="rId567"/>
-    <hyperlink ref="D285" r:id="rId568"/>
-    <hyperlink ref="C286" r:id="rId569"/>
-    <hyperlink ref="D286" r:id="rId570"/>
-    <hyperlink ref="C287" r:id="rId571"/>
-    <hyperlink ref="D287" r:id="rId572"/>
-    <hyperlink ref="C288" r:id="rId573"/>
-    <hyperlink ref="D288" r:id="rId574"/>
-    <hyperlink ref="C289" r:id="rId575"/>
-    <hyperlink ref="D289" r:id="rId576"/>
-    <hyperlink ref="C290" r:id="rId577"/>
-    <hyperlink ref="D290" r:id="rId578"/>
-    <hyperlink ref="C291" r:id="rId579"/>
-    <hyperlink ref="D291" r:id="rId580"/>
-    <hyperlink ref="C292" r:id="rId581"/>
-    <hyperlink ref="D292" r:id="rId582"/>
-    <hyperlink ref="C293" r:id="rId583"/>
-    <hyperlink ref="D293" r:id="rId584"/>
-    <hyperlink ref="C294" r:id="rId585"/>
-    <hyperlink ref="D294" r:id="rId586"/>
-    <hyperlink ref="C295" r:id="rId587"/>
-    <hyperlink ref="D295" r:id="rId588"/>
-    <hyperlink ref="C296" r:id="rId589"/>
-    <hyperlink ref="D296" r:id="rId590"/>
-    <hyperlink ref="C297" r:id="rId591"/>
-    <hyperlink ref="D297" r:id="rId592"/>
-    <hyperlink ref="C298" r:id="rId593"/>
-    <hyperlink ref="D298" r:id="rId594"/>
-    <hyperlink ref="C299" r:id="rId595"/>
-    <hyperlink ref="D299" r:id="rId596"/>
-    <hyperlink ref="C300" r:id="rId597"/>
-    <hyperlink ref="D300" r:id="rId598"/>
-    <hyperlink ref="C301" r:id="rId599"/>
-    <hyperlink ref="D301" r:id="rId600"/>
-    <hyperlink ref="C302" r:id="rId601"/>
-    <hyperlink ref="D302" r:id="rId602"/>
-    <hyperlink ref="C303" r:id="rId603"/>
-    <hyperlink ref="D303" r:id="rId604"/>
-    <hyperlink ref="C304" r:id="rId605"/>
-    <hyperlink ref="D304" r:id="rId606"/>
-    <hyperlink ref="C305" r:id="rId607"/>
-    <hyperlink ref="D305" r:id="rId608"/>
-    <hyperlink ref="C306" r:id="rId609"/>
-    <hyperlink ref="D306" r:id="rId610"/>
-    <hyperlink ref="C307" r:id="rId611"/>
-    <hyperlink ref="D307" r:id="rId612"/>
-    <hyperlink ref="C308" r:id="rId613"/>
-    <hyperlink ref="D308" r:id="rId614"/>
-    <hyperlink ref="C309" r:id="rId615"/>
-    <hyperlink ref="D309" r:id="rId616"/>
-    <hyperlink ref="C310" r:id="rId617"/>
-    <hyperlink ref="D310" r:id="rId618"/>
-    <hyperlink ref="C311" r:id="rId619"/>
-    <hyperlink ref="D311" r:id="rId620"/>
-    <hyperlink ref="C312" r:id="rId621"/>
-    <hyperlink ref="D312" r:id="rId622"/>
-    <hyperlink ref="C313" r:id="rId623"/>
-    <hyperlink ref="D313" r:id="rId624"/>
-    <hyperlink ref="C314" r:id="rId625"/>
-    <hyperlink ref="D314" r:id="rId626"/>
-    <hyperlink ref="C315" r:id="rId627"/>
-    <hyperlink ref="D315" r:id="rId628"/>
-    <hyperlink ref="C316" r:id="rId629"/>
-    <hyperlink ref="D316" r:id="rId630"/>
-    <hyperlink ref="C317" r:id="rId631"/>
-    <hyperlink ref="D317" r:id="rId632"/>
-    <hyperlink ref="C318" r:id="rId633"/>
-    <hyperlink ref="D318" r:id="rId634"/>
-    <hyperlink ref="C319" r:id="rId635"/>
-    <hyperlink ref="D319" r:id="rId636"/>
-    <hyperlink ref="C320" r:id="rId637"/>
-    <hyperlink ref="D320" r:id="rId638"/>
-    <hyperlink ref="C321" r:id="rId639"/>
-    <hyperlink ref="D321" r:id="rId640"/>
-    <hyperlink ref="C322" r:id="rId641"/>
-    <hyperlink ref="D322" r:id="rId642"/>
-    <hyperlink ref="C323" r:id="rId643"/>
-    <hyperlink ref="D323" r:id="rId644"/>
-    <hyperlink ref="C324" r:id="rId645"/>
-    <hyperlink ref="D324" r:id="rId646"/>
-    <hyperlink ref="C325" r:id="rId647"/>
-    <hyperlink ref="D325" r:id="rId648"/>
-    <hyperlink ref="C326" r:id="rId649"/>
-    <hyperlink ref="D326" r:id="rId650"/>
-    <hyperlink ref="C327" r:id="rId651"/>
-    <hyperlink ref="D327" r:id="rId652"/>
-    <hyperlink ref="C328" r:id="rId653"/>
-    <hyperlink ref="D328" r:id="rId654"/>
-    <hyperlink ref="C329" r:id="rId655"/>
-    <hyperlink ref="D329" r:id="rId656"/>
-    <hyperlink ref="C330" r:id="rId657"/>
-    <hyperlink ref="D330" r:id="rId658"/>
-    <hyperlink ref="C331" r:id="rId659"/>
-    <hyperlink ref="D331" r:id="rId660"/>
-    <hyperlink ref="C332" r:id="rId661"/>
-    <hyperlink ref="D332" r:id="rId662"/>
-    <hyperlink ref="C333" r:id="rId663"/>
-    <hyperlink ref="D333" r:id="rId664"/>
-    <hyperlink ref="C334" r:id="rId665"/>
-    <hyperlink ref="D334" r:id="rId666"/>
-    <hyperlink ref="C335" r:id="rId667"/>
-    <hyperlink ref="D335" r:id="rId668"/>
-    <hyperlink ref="C336" r:id="rId669"/>
-    <hyperlink ref="D336" r:id="rId670"/>
-    <hyperlink ref="C337" r:id="rId671"/>
-    <hyperlink ref="D337" r:id="rId672"/>
-    <hyperlink ref="C338" r:id="rId673"/>
-    <hyperlink ref="D338" r:id="rId674"/>
-    <hyperlink ref="C339" r:id="rId675"/>
-    <hyperlink ref="D339" r:id="rId676"/>
-    <hyperlink ref="C340" r:id="rId677"/>
-    <hyperlink ref="D340" r:id="rId678"/>
-    <hyperlink ref="C341" r:id="rId679"/>
-    <hyperlink ref="D341" r:id="rId680"/>
-    <hyperlink ref="C342" r:id="rId681"/>
-    <hyperlink ref="D342" r:id="rId682"/>
-    <hyperlink ref="C343" r:id="rId683"/>
-    <hyperlink ref="D343" r:id="rId684"/>
-    <hyperlink ref="C344" r:id="rId685"/>
-    <hyperlink ref="D344" r:id="rId686"/>
-    <hyperlink ref="C345" r:id="rId687"/>
-    <hyperlink ref="D345" r:id="rId688"/>
-    <hyperlink ref="C346" r:id="rId689"/>
-    <hyperlink ref="D346" r:id="rId690"/>
-    <hyperlink ref="C347" r:id="rId691"/>
-    <hyperlink ref="D347" r:id="rId692"/>
-    <hyperlink ref="C348" r:id="rId693"/>
-    <hyperlink ref="D348" r:id="rId694"/>
-    <hyperlink ref="C349" r:id="rId695"/>
-    <hyperlink ref="D349" r:id="rId696"/>
-    <hyperlink ref="C350" r:id="rId697"/>
-    <hyperlink ref="D350" r:id="rId698"/>
-    <hyperlink ref="C351" r:id="rId699"/>
-    <hyperlink ref="D351" r:id="rId700"/>
-    <hyperlink ref="C352" r:id="rId701"/>
-    <hyperlink ref="D352" r:id="rId702"/>
-    <hyperlink ref="C353" r:id="rId703"/>
-    <hyperlink ref="D353" r:id="rId704"/>
-    <hyperlink ref="C354" r:id="rId705"/>
-    <hyperlink ref="D354" r:id="rId706"/>
-    <hyperlink ref="C355" r:id="rId707"/>
-    <hyperlink ref="D355" r:id="rId708"/>
-    <hyperlink ref="C356" r:id="rId709"/>
-    <hyperlink ref="D356" r:id="rId710"/>
+    <hyperlink ref="C65" r:id="rId126"/>
+    <hyperlink ref="C66" r:id="rId127"/>
+    <hyperlink ref="C67" r:id="rId128"/>
+    <hyperlink ref="C68" r:id="rId129"/>
+    <hyperlink ref="C69" r:id="rId130"/>
+    <hyperlink ref="C70" r:id="rId131"/>
+    <hyperlink ref="C71" r:id="rId132"/>
+    <hyperlink ref="C72" r:id="rId133"/>
+    <hyperlink ref="C73" r:id="rId134"/>
+    <hyperlink ref="D73" r:id="rId135"/>
+    <hyperlink ref="C74" r:id="rId136"/>
+    <hyperlink ref="D74" r:id="rId137"/>
+    <hyperlink ref="C75" r:id="rId138"/>
+    <hyperlink ref="D75" r:id="rId139"/>
+    <hyperlink ref="C76" r:id="rId140"/>
+    <hyperlink ref="D76" r:id="rId141"/>
+    <hyperlink ref="C77" r:id="rId142"/>
+    <hyperlink ref="D77" r:id="rId143"/>
+    <hyperlink ref="C78" r:id="rId144"/>
+    <hyperlink ref="D78" r:id="rId145"/>
+    <hyperlink ref="C79" r:id="rId146"/>
+    <hyperlink ref="D79" r:id="rId147"/>
+    <hyperlink ref="C80" r:id="rId148"/>
+    <hyperlink ref="D80" r:id="rId149"/>
+    <hyperlink ref="C81" r:id="rId150"/>
+    <hyperlink ref="D81" r:id="rId151"/>
+    <hyperlink ref="C82" r:id="rId152"/>
+    <hyperlink ref="D82" r:id="rId153"/>
+    <hyperlink ref="C83" r:id="rId154"/>
+    <hyperlink ref="D83" r:id="rId155"/>
+    <hyperlink ref="C84" r:id="rId156"/>
+    <hyperlink ref="D84" r:id="rId157"/>
+    <hyperlink ref="C85" r:id="rId158"/>
+    <hyperlink ref="D85" r:id="rId159"/>
+    <hyperlink ref="C86" r:id="rId160"/>
+    <hyperlink ref="D86" r:id="rId161"/>
+    <hyperlink ref="C87" r:id="rId162"/>
+    <hyperlink ref="D87" r:id="rId163"/>
+    <hyperlink ref="C88" r:id="rId164"/>
+    <hyperlink ref="D88" r:id="rId165"/>
+    <hyperlink ref="C89" r:id="rId166"/>
+    <hyperlink ref="D89" r:id="rId167"/>
+    <hyperlink ref="C90" r:id="rId168"/>
+    <hyperlink ref="D90" r:id="rId169"/>
+    <hyperlink ref="C91" r:id="rId170"/>
+    <hyperlink ref="D91" r:id="rId171"/>
+    <hyperlink ref="C92" r:id="rId172"/>
+    <hyperlink ref="D92" r:id="rId173"/>
+    <hyperlink ref="C93" r:id="rId174"/>
+    <hyperlink ref="D93" r:id="rId175"/>
+    <hyperlink ref="C94" r:id="rId176"/>
+    <hyperlink ref="D94" r:id="rId177"/>
+    <hyperlink ref="C95" r:id="rId178"/>
+    <hyperlink ref="D95" r:id="rId179"/>
+    <hyperlink ref="C96" r:id="rId180"/>
+    <hyperlink ref="D96" r:id="rId181"/>
+    <hyperlink ref="C97" r:id="rId182"/>
+    <hyperlink ref="D97" r:id="rId183"/>
+    <hyperlink ref="C98" r:id="rId184"/>
+    <hyperlink ref="D98" r:id="rId185"/>
+    <hyperlink ref="C99" r:id="rId186"/>
+    <hyperlink ref="D99" r:id="rId187"/>
+    <hyperlink ref="C100" r:id="rId188"/>
+    <hyperlink ref="D100" r:id="rId189"/>
+    <hyperlink ref="C101" r:id="rId190"/>
+    <hyperlink ref="D101" r:id="rId191"/>
+    <hyperlink ref="C102" r:id="rId192"/>
+    <hyperlink ref="D102" r:id="rId193"/>
+    <hyperlink ref="C103" r:id="rId194"/>
+    <hyperlink ref="D103" r:id="rId195"/>
+    <hyperlink ref="C104" r:id="rId196"/>
+    <hyperlink ref="D104" r:id="rId197"/>
+    <hyperlink ref="C105" r:id="rId198"/>
+    <hyperlink ref="D105" r:id="rId199"/>
+    <hyperlink ref="C106" r:id="rId200"/>
+    <hyperlink ref="D106" r:id="rId201"/>
+    <hyperlink ref="C107" r:id="rId202"/>
+    <hyperlink ref="D107" r:id="rId203"/>
+    <hyperlink ref="C108" r:id="rId204"/>
+    <hyperlink ref="D108" r:id="rId205"/>
+    <hyperlink ref="C109" r:id="rId206"/>
+    <hyperlink ref="D109" r:id="rId207"/>
+    <hyperlink ref="C110" r:id="rId208"/>
+    <hyperlink ref="D110" r:id="rId209"/>
+    <hyperlink ref="C111" r:id="rId210"/>
+    <hyperlink ref="D111" r:id="rId211"/>
+    <hyperlink ref="C112" r:id="rId212"/>
+    <hyperlink ref="D112" r:id="rId213"/>
+    <hyperlink ref="C113" r:id="rId214"/>
+    <hyperlink ref="D113" r:id="rId215"/>
+    <hyperlink ref="C114" r:id="rId216"/>
+    <hyperlink ref="D114" r:id="rId217"/>
+    <hyperlink ref="C115" r:id="rId218"/>
+    <hyperlink ref="D115" r:id="rId219"/>
+    <hyperlink ref="C116" r:id="rId220"/>
+    <hyperlink ref="D116" r:id="rId221"/>
+    <hyperlink ref="C117" r:id="rId222"/>
+    <hyperlink ref="D117" r:id="rId223"/>
+    <hyperlink ref="C118" r:id="rId224"/>
+    <hyperlink ref="D118" r:id="rId225"/>
+    <hyperlink ref="C119" r:id="rId226"/>
+    <hyperlink ref="D119" r:id="rId227"/>
+    <hyperlink ref="C120" r:id="rId228"/>
+    <hyperlink ref="D120" r:id="rId229"/>
+    <hyperlink ref="C121" r:id="rId230"/>
+    <hyperlink ref="D121" r:id="rId231"/>
+    <hyperlink ref="C122" r:id="rId232"/>
+    <hyperlink ref="D122" r:id="rId233"/>
+    <hyperlink ref="C123" r:id="rId234"/>
+    <hyperlink ref="D123" r:id="rId235"/>
+    <hyperlink ref="C124" r:id="rId236"/>
+    <hyperlink ref="D124" r:id="rId237"/>
+    <hyperlink ref="C125" r:id="rId238"/>
+    <hyperlink ref="D125" r:id="rId239"/>
+    <hyperlink ref="C126" r:id="rId240"/>
+    <hyperlink ref="D126" r:id="rId241"/>
+    <hyperlink ref="C127" r:id="rId242"/>
+    <hyperlink ref="D127" r:id="rId243"/>
+    <hyperlink ref="C128" r:id="rId244"/>
+    <hyperlink ref="D128" r:id="rId245"/>
+    <hyperlink ref="C129" r:id="rId246"/>
+    <hyperlink ref="D129" r:id="rId247"/>
+    <hyperlink ref="C130" r:id="rId248"/>
+    <hyperlink ref="D130" r:id="rId249"/>
+    <hyperlink ref="C131" r:id="rId250"/>
+    <hyperlink ref="C132" r:id="rId251"/>
+    <hyperlink ref="C133" r:id="rId252"/>
+    <hyperlink ref="C134" r:id="rId253"/>
+    <hyperlink ref="C135" r:id="rId254"/>
+    <hyperlink ref="C136" r:id="rId255"/>
+    <hyperlink ref="C137" r:id="rId256"/>
+    <hyperlink ref="C138" r:id="rId257"/>
+    <hyperlink ref="C139" r:id="rId258"/>
+    <hyperlink ref="C140" r:id="rId259"/>
+    <hyperlink ref="D140" r:id="rId260"/>
+    <hyperlink ref="C141" r:id="rId261"/>
+    <hyperlink ref="D141" r:id="rId262"/>
+    <hyperlink ref="C142" r:id="rId263"/>
+    <hyperlink ref="D142" r:id="rId264"/>
+    <hyperlink ref="C143" r:id="rId265"/>
+    <hyperlink ref="D143" r:id="rId266"/>
+    <hyperlink ref="C144" r:id="rId267"/>
+    <hyperlink ref="D144" r:id="rId268"/>
+    <hyperlink ref="C145" r:id="rId269"/>
+    <hyperlink ref="D145" r:id="rId270"/>
+    <hyperlink ref="C146" r:id="rId271"/>
+    <hyperlink ref="D146" r:id="rId272"/>
+    <hyperlink ref="C147" r:id="rId273"/>
+    <hyperlink ref="D147" r:id="rId274"/>
+    <hyperlink ref="C148" r:id="rId275"/>
+    <hyperlink ref="D148" r:id="rId276"/>
+    <hyperlink ref="C149" r:id="rId277"/>
+    <hyperlink ref="D149" r:id="rId278"/>
+    <hyperlink ref="C150" r:id="rId279"/>
+    <hyperlink ref="D150" r:id="rId280"/>
+    <hyperlink ref="C151" r:id="rId281"/>
+    <hyperlink ref="D151" r:id="rId282"/>
+    <hyperlink ref="C152" r:id="rId283"/>
+    <hyperlink ref="D152" r:id="rId284"/>
+    <hyperlink ref="C153" r:id="rId285"/>
+    <hyperlink ref="D153" r:id="rId286"/>
+    <hyperlink ref="C154" r:id="rId287"/>
+    <hyperlink ref="D154" r:id="rId288"/>
+    <hyperlink ref="C155" r:id="rId289"/>
+    <hyperlink ref="D155" r:id="rId290"/>
+    <hyperlink ref="C156" r:id="rId291"/>
+    <hyperlink ref="D156" r:id="rId292"/>
+    <hyperlink ref="C157" r:id="rId293"/>
+    <hyperlink ref="D157" r:id="rId294"/>
+    <hyperlink ref="C158" r:id="rId295"/>
+    <hyperlink ref="D158" r:id="rId296"/>
+    <hyperlink ref="C159" r:id="rId297"/>
+    <hyperlink ref="D159" r:id="rId298"/>
+    <hyperlink ref="C160" r:id="rId299"/>
+    <hyperlink ref="D160" r:id="rId300"/>
+    <hyperlink ref="C161" r:id="rId301"/>
+    <hyperlink ref="D161" r:id="rId302"/>
+    <hyperlink ref="C162" r:id="rId303"/>
+    <hyperlink ref="D162" r:id="rId304"/>
+    <hyperlink ref="C163" r:id="rId305"/>
+    <hyperlink ref="D163" r:id="rId306"/>
+    <hyperlink ref="C164" r:id="rId307"/>
+    <hyperlink ref="D164" r:id="rId308"/>
+    <hyperlink ref="C165" r:id="rId309"/>
+    <hyperlink ref="D165" r:id="rId310"/>
+    <hyperlink ref="C166" r:id="rId311"/>
+    <hyperlink ref="D166" r:id="rId312"/>
+    <hyperlink ref="C167" r:id="rId313"/>
+    <hyperlink ref="D167" r:id="rId314"/>
+    <hyperlink ref="C168" r:id="rId315"/>
+    <hyperlink ref="D168" r:id="rId316"/>
+    <hyperlink ref="C169" r:id="rId317"/>
+    <hyperlink ref="D169" r:id="rId318"/>
+    <hyperlink ref="C170" r:id="rId319"/>
+    <hyperlink ref="D170" r:id="rId320"/>
+    <hyperlink ref="C171" r:id="rId321"/>
+    <hyperlink ref="D171" r:id="rId322"/>
+    <hyperlink ref="C172" r:id="rId323"/>
+    <hyperlink ref="D172" r:id="rId324"/>
+    <hyperlink ref="C173" r:id="rId325"/>
+    <hyperlink ref="D173" r:id="rId326"/>
+    <hyperlink ref="C174" r:id="rId327"/>
+    <hyperlink ref="D174" r:id="rId328"/>
+    <hyperlink ref="C175" r:id="rId329"/>
+    <hyperlink ref="D175" r:id="rId330"/>
+    <hyperlink ref="C176" r:id="rId331"/>
+    <hyperlink ref="D176" r:id="rId332"/>
+    <hyperlink ref="C177" r:id="rId333"/>
+    <hyperlink ref="D177" r:id="rId334"/>
+    <hyperlink ref="C178" r:id="rId335"/>
+    <hyperlink ref="D178" r:id="rId336"/>
+    <hyperlink ref="C179" r:id="rId337"/>
+    <hyperlink ref="D179" r:id="rId338"/>
+    <hyperlink ref="C180" r:id="rId339"/>
+    <hyperlink ref="D180" r:id="rId340"/>
+    <hyperlink ref="C181" r:id="rId341"/>
+    <hyperlink ref="D181" r:id="rId342"/>
+    <hyperlink ref="C182" r:id="rId343"/>
+    <hyperlink ref="D182" r:id="rId344"/>
+    <hyperlink ref="C183" r:id="rId345"/>
+    <hyperlink ref="D183" r:id="rId346"/>
+    <hyperlink ref="C184" r:id="rId347"/>
+    <hyperlink ref="D184" r:id="rId348"/>
+    <hyperlink ref="C185" r:id="rId349"/>
+    <hyperlink ref="D185" r:id="rId350"/>
+    <hyperlink ref="C186" r:id="rId351"/>
+    <hyperlink ref="D186" r:id="rId352"/>
+    <hyperlink ref="C187" r:id="rId353"/>
+    <hyperlink ref="D187" r:id="rId354"/>
+    <hyperlink ref="C188" r:id="rId355"/>
+    <hyperlink ref="D188" r:id="rId356"/>
+    <hyperlink ref="C189" r:id="rId357"/>
+    <hyperlink ref="D189" r:id="rId358"/>
+    <hyperlink ref="C190" r:id="rId359"/>
+    <hyperlink ref="D190" r:id="rId360"/>
+    <hyperlink ref="C191" r:id="rId361"/>
+    <hyperlink ref="D191" r:id="rId362"/>
+    <hyperlink ref="C192" r:id="rId363"/>
+    <hyperlink ref="D192" r:id="rId364"/>
+    <hyperlink ref="C193" r:id="rId365"/>
+    <hyperlink ref="D193" r:id="rId366"/>
+    <hyperlink ref="C194" r:id="rId367"/>
+    <hyperlink ref="D194" r:id="rId368"/>
+    <hyperlink ref="C195" r:id="rId369"/>
+    <hyperlink ref="D195" r:id="rId370"/>
+    <hyperlink ref="C196" r:id="rId371"/>
+    <hyperlink ref="D196" r:id="rId372"/>
+    <hyperlink ref="C197" r:id="rId373"/>
+    <hyperlink ref="D197" r:id="rId374"/>
+    <hyperlink ref="C198" r:id="rId375"/>
+    <hyperlink ref="D198" r:id="rId376"/>
+    <hyperlink ref="C199" r:id="rId377"/>
+    <hyperlink ref="D199" r:id="rId378"/>
+    <hyperlink ref="C200" r:id="rId379"/>
+    <hyperlink ref="D200" r:id="rId380"/>
+    <hyperlink ref="C201" r:id="rId381"/>
+    <hyperlink ref="D201" r:id="rId382"/>
+    <hyperlink ref="C202" r:id="rId383"/>
+    <hyperlink ref="D202" r:id="rId384"/>
+    <hyperlink ref="C203" r:id="rId385"/>
+    <hyperlink ref="D203" r:id="rId386"/>
+    <hyperlink ref="C204" r:id="rId387"/>
+    <hyperlink ref="D204" r:id="rId388"/>
+    <hyperlink ref="C205" r:id="rId389"/>
+    <hyperlink ref="D205" r:id="rId390"/>
+    <hyperlink ref="C206" r:id="rId391"/>
+    <hyperlink ref="D206" r:id="rId392"/>
+    <hyperlink ref="C207" r:id="rId393"/>
+    <hyperlink ref="D207" r:id="rId394"/>
+    <hyperlink ref="C208" r:id="rId395"/>
+    <hyperlink ref="D208" r:id="rId396"/>
+    <hyperlink ref="C209" r:id="rId397"/>
+    <hyperlink ref="D209" r:id="rId398"/>
+    <hyperlink ref="C210" r:id="rId399"/>
+    <hyperlink ref="D210" r:id="rId400"/>
+    <hyperlink ref="C211" r:id="rId401"/>
+    <hyperlink ref="D211" r:id="rId402"/>
+    <hyperlink ref="C212" r:id="rId403"/>
+    <hyperlink ref="D212" r:id="rId404"/>
+    <hyperlink ref="C213" r:id="rId405"/>
+    <hyperlink ref="D213" r:id="rId406"/>
+    <hyperlink ref="C214" r:id="rId407"/>
+    <hyperlink ref="D214" r:id="rId408"/>
+    <hyperlink ref="C215" r:id="rId409"/>
+    <hyperlink ref="D215" r:id="rId410"/>
+    <hyperlink ref="C216" r:id="rId411"/>
+    <hyperlink ref="D216" r:id="rId412"/>
+    <hyperlink ref="C217" r:id="rId413"/>
+    <hyperlink ref="D217" r:id="rId414"/>
+    <hyperlink ref="C218" r:id="rId415"/>
+    <hyperlink ref="D218" r:id="rId416"/>
+    <hyperlink ref="C219" r:id="rId417"/>
+    <hyperlink ref="D219" r:id="rId418"/>
+    <hyperlink ref="C220" r:id="rId419"/>
+    <hyperlink ref="D220" r:id="rId420"/>
+    <hyperlink ref="C221" r:id="rId421"/>
+    <hyperlink ref="D221" r:id="rId422"/>
+    <hyperlink ref="C222" r:id="rId423"/>
+    <hyperlink ref="D222" r:id="rId424"/>
+    <hyperlink ref="C223" r:id="rId425"/>
+    <hyperlink ref="D223" r:id="rId426"/>
+    <hyperlink ref="C224" r:id="rId427"/>
+    <hyperlink ref="D224" r:id="rId428"/>
+    <hyperlink ref="C225" r:id="rId429"/>
+    <hyperlink ref="D225" r:id="rId430"/>
+    <hyperlink ref="C226" r:id="rId431"/>
+    <hyperlink ref="D226" r:id="rId432"/>
+    <hyperlink ref="C227" r:id="rId433"/>
+    <hyperlink ref="D227" r:id="rId434"/>
+    <hyperlink ref="C228" r:id="rId435"/>
+    <hyperlink ref="D228" r:id="rId436"/>
+    <hyperlink ref="C229" r:id="rId437"/>
+    <hyperlink ref="D229" r:id="rId438"/>
+    <hyperlink ref="C230" r:id="rId439"/>
+    <hyperlink ref="D230" r:id="rId440"/>
+    <hyperlink ref="C231" r:id="rId441"/>
+    <hyperlink ref="D231" r:id="rId442"/>
+    <hyperlink ref="C232" r:id="rId443"/>
+    <hyperlink ref="D232" r:id="rId444"/>
+    <hyperlink ref="C233" r:id="rId445"/>
+    <hyperlink ref="D233" r:id="rId446"/>
+    <hyperlink ref="C234" r:id="rId447"/>
+    <hyperlink ref="D234" r:id="rId448"/>
+    <hyperlink ref="C235" r:id="rId449"/>
+    <hyperlink ref="D235" r:id="rId450"/>
+    <hyperlink ref="C236" r:id="rId451"/>
+    <hyperlink ref="D236" r:id="rId452"/>
+    <hyperlink ref="C237" r:id="rId453"/>
+    <hyperlink ref="D237" r:id="rId454"/>
+    <hyperlink ref="C238" r:id="rId455"/>
+    <hyperlink ref="D238" r:id="rId456"/>
+    <hyperlink ref="C239" r:id="rId457"/>
+    <hyperlink ref="D239" r:id="rId458"/>
+    <hyperlink ref="C240" r:id="rId459"/>
+    <hyperlink ref="D240" r:id="rId460"/>
+    <hyperlink ref="C241" r:id="rId461"/>
+    <hyperlink ref="D241" r:id="rId462"/>
+    <hyperlink ref="C242" r:id="rId463"/>
+    <hyperlink ref="D242" r:id="rId464"/>
+    <hyperlink ref="C243" r:id="rId465"/>
+    <hyperlink ref="D243" r:id="rId466"/>
+    <hyperlink ref="C244" r:id="rId467"/>
+    <hyperlink ref="D244" r:id="rId468"/>
+    <hyperlink ref="C245" r:id="rId469"/>
+    <hyperlink ref="D245" r:id="rId470"/>
+    <hyperlink ref="C246" r:id="rId471"/>
+    <hyperlink ref="D246" r:id="rId472"/>
+    <hyperlink ref="C247" r:id="rId473"/>
+    <hyperlink ref="D247" r:id="rId474"/>
+    <hyperlink ref="C248" r:id="rId475"/>
+    <hyperlink ref="D248" r:id="rId476"/>
+    <hyperlink ref="C249" r:id="rId477"/>
+    <hyperlink ref="D249" r:id="rId478"/>
+    <hyperlink ref="C250" r:id="rId479"/>
+    <hyperlink ref="D250" r:id="rId480"/>
+    <hyperlink ref="C251" r:id="rId481"/>
+    <hyperlink ref="D251" r:id="rId482"/>
+    <hyperlink ref="C252" r:id="rId483"/>
+    <hyperlink ref="D252" r:id="rId484"/>
+    <hyperlink ref="C253" r:id="rId485"/>
+    <hyperlink ref="D253" r:id="rId486"/>
+    <hyperlink ref="C254" r:id="rId487"/>
+    <hyperlink ref="D254" r:id="rId488"/>
+    <hyperlink ref="C255" r:id="rId489"/>
+    <hyperlink ref="D255" r:id="rId490"/>
+    <hyperlink ref="C256" r:id="rId491"/>
+    <hyperlink ref="D256" r:id="rId492"/>
+    <hyperlink ref="C257" r:id="rId493"/>
+    <hyperlink ref="D257" r:id="rId494"/>
+    <hyperlink ref="C258" r:id="rId495"/>
+    <hyperlink ref="D258" r:id="rId496"/>
+    <hyperlink ref="C259" r:id="rId497"/>
+    <hyperlink ref="D259" r:id="rId498"/>
+    <hyperlink ref="C260" r:id="rId499"/>
+    <hyperlink ref="D260" r:id="rId500"/>
+    <hyperlink ref="C261" r:id="rId501"/>
+    <hyperlink ref="D261" r:id="rId502"/>
+    <hyperlink ref="C262" r:id="rId503"/>
+    <hyperlink ref="D262" r:id="rId504"/>
+    <hyperlink ref="C263" r:id="rId505"/>
+    <hyperlink ref="D263" r:id="rId506"/>
+    <hyperlink ref="C264" r:id="rId507"/>
+    <hyperlink ref="D264" r:id="rId508"/>
+    <hyperlink ref="C265" r:id="rId509"/>
+    <hyperlink ref="D265" r:id="rId510"/>
+    <hyperlink ref="C266" r:id="rId511"/>
+    <hyperlink ref="D266" r:id="rId512"/>
+    <hyperlink ref="C267" r:id="rId513"/>
+    <hyperlink ref="D267" r:id="rId514"/>
+    <hyperlink ref="C268" r:id="rId515"/>
+    <hyperlink ref="D268" r:id="rId516"/>
+    <hyperlink ref="C269" r:id="rId517"/>
+    <hyperlink ref="D269" r:id="rId518"/>
+    <hyperlink ref="C270" r:id="rId519"/>
+    <hyperlink ref="D270" r:id="rId520"/>
+    <hyperlink ref="C271" r:id="rId521"/>
+    <hyperlink ref="D271" r:id="rId522"/>
+    <hyperlink ref="C272" r:id="rId523"/>
+    <hyperlink ref="D272" r:id="rId524"/>
+    <hyperlink ref="C273" r:id="rId525"/>
+    <hyperlink ref="D273" r:id="rId526"/>
+    <hyperlink ref="C274" r:id="rId527"/>
+    <hyperlink ref="D274" r:id="rId528"/>
+    <hyperlink ref="C275" r:id="rId529"/>
+    <hyperlink ref="D275" r:id="rId530"/>
+    <hyperlink ref="C276" r:id="rId531"/>
+    <hyperlink ref="D276" r:id="rId532"/>
+    <hyperlink ref="C277" r:id="rId533"/>
+    <hyperlink ref="D277" r:id="rId534"/>
+    <hyperlink ref="C278" r:id="rId535"/>
+    <hyperlink ref="D278" r:id="rId536"/>
+    <hyperlink ref="C279" r:id="rId537"/>
+    <hyperlink ref="D279" r:id="rId538"/>
+    <hyperlink ref="C280" r:id="rId539"/>
+    <hyperlink ref="D280" r:id="rId540"/>
+    <hyperlink ref="C281" r:id="rId541"/>
+    <hyperlink ref="D281" r:id="rId542"/>
+    <hyperlink ref="C282" r:id="rId543"/>
+    <hyperlink ref="D282" r:id="rId544"/>
+    <hyperlink ref="C283" r:id="rId545"/>
+    <hyperlink ref="D283" r:id="rId546"/>
+    <hyperlink ref="C284" r:id="rId547"/>
+    <hyperlink ref="D284" r:id="rId548"/>
+    <hyperlink ref="C285" r:id="rId549"/>
+    <hyperlink ref="D285" r:id="rId550"/>
+    <hyperlink ref="C286" r:id="rId551"/>
+    <hyperlink ref="D286" r:id="rId552"/>
+    <hyperlink ref="C287" r:id="rId553"/>
+    <hyperlink ref="D287" r:id="rId554"/>
+    <hyperlink ref="C288" r:id="rId555"/>
+    <hyperlink ref="D288" r:id="rId556"/>
+    <hyperlink ref="C289" r:id="rId557"/>
+    <hyperlink ref="D289" r:id="rId558"/>
+    <hyperlink ref="C290" r:id="rId559"/>
+    <hyperlink ref="D290" r:id="rId560"/>
+    <hyperlink ref="C291" r:id="rId561"/>
+    <hyperlink ref="D291" r:id="rId562"/>
+    <hyperlink ref="C292" r:id="rId563"/>
+    <hyperlink ref="D292" r:id="rId564"/>
+    <hyperlink ref="C293" r:id="rId565"/>
+    <hyperlink ref="D293" r:id="rId566"/>
+    <hyperlink ref="C294" r:id="rId567"/>
+    <hyperlink ref="D294" r:id="rId568"/>
+    <hyperlink ref="C295" r:id="rId569"/>
+    <hyperlink ref="D295" r:id="rId570"/>
+    <hyperlink ref="C296" r:id="rId571"/>
+    <hyperlink ref="D296" r:id="rId572"/>
+    <hyperlink ref="C297" r:id="rId573"/>
+    <hyperlink ref="D297" r:id="rId574"/>
+    <hyperlink ref="C298" r:id="rId575"/>
+    <hyperlink ref="D298" r:id="rId576"/>
+    <hyperlink ref="C299" r:id="rId577"/>
+    <hyperlink ref="D299" r:id="rId578"/>
+    <hyperlink ref="C300" r:id="rId579"/>
+    <hyperlink ref="D300" r:id="rId580"/>
+    <hyperlink ref="C301" r:id="rId581"/>
+    <hyperlink ref="D301" r:id="rId582"/>
+    <hyperlink ref="C302" r:id="rId583"/>
+    <hyperlink ref="D302" r:id="rId584"/>
+    <hyperlink ref="C303" r:id="rId585"/>
+    <hyperlink ref="D303" r:id="rId586"/>
+    <hyperlink ref="C304" r:id="rId587"/>
+    <hyperlink ref="D304" r:id="rId588"/>
+    <hyperlink ref="C305" r:id="rId589"/>
+    <hyperlink ref="D305" r:id="rId590"/>
+    <hyperlink ref="C306" r:id="rId591"/>
+    <hyperlink ref="D306" r:id="rId592"/>
+    <hyperlink ref="C307" r:id="rId593"/>
+    <hyperlink ref="D307" r:id="rId594"/>
+    <hyperlink ref="C308" r:id="rId595"/>
+    <hyperlink ref="D308" r:id="rId596"/>
+    <hyperlink ref="C309" r:id="rId597"/>
+    <hyperlink ref="D309" r:id="rId598"/>
+    <hyperlink ref="C310" r:id="rId599"/>
+    <hyperlink ref="D310" r:id="rId600"/>
+    <hyperlink ref="C311" r:id="rId601"/>
+    <hyperlink ref="D311" r:id="rId602"/>
+    <hyperlink ref="C312" r:id="rId603"/>
+    <hyperlink ref="D312" r:id="rId604"/>
+    <hyperlink ref="C313" r:id="rId605"/>
+    <hyperlink ref="D313" r:id="rId606"/>
+    <hyperlink ref="C314" r:id="rId607"/>
+    <hyperlink ref="D314" r:id="rId608"/>
+    <hyperlink ref="C315" r:id="rId609"/>
+    <hyperlink ref="D315" r:id="rId610"/>
+    <hyperlink ref="C316" r:id="rId611"/>
+    <hyperlink ref="D316" r:id="rId612"/>
+    <hyperlink ref="C317" r:id="rId613"/>
+    <hyperlink ref="D317" r:id="rId614"/>
+    <hyperlink ref="C318" r:id="rId615"/>
+    <hyperlink ref="D318" r:id="rId616"/>
+    <hyperlink ref="C319" r:id="rId617"/>
+    <hyperlink ref="D319" r:id="rId618"/>
+    <hyperlink ref="C320" r:id="rId619"/>
+    <hyperlink ref="D320" r:id="rId620"/>
+    <hyperlink ref="C321" r:id="rId621"/>
+    <hyperlink ref="D321" r:id="rId622"/>
+    <hyperlink ref="C322" r:id="rId623"/>
+    <hyperlink ref="D322" r:id="rId624"/>
+    <hyperlink ref="C323" r:id="rId625"/>
+    <hyperlink ref="D323" r:id="rId626"/>
+    <hyperlink ref="C324" r:id="rId627"/>
+    <hyperlink ref="D324" r:id="rId628"/>
+    <hyperlink ref="C325" r:id="rId629"/>
+    <hyperlink ref="D325" r:id="rId630"/>
+    <hyperlink ref="C326" r:id="rId631"/>
+    <hyperlink ref="C327" r:id="rId632"/>
+    <hyperlink ref="C328" r:id="rId633"/>
+    <hyperlink ref="C329" r:id="rId634"/>
+    <hyperlink ref="C330" r:id="rId635"/>
+    <hyperlink ref="C331" r:id="rId636"/>
+    <hyperlink ref="C332" r:id="rId637"/>
+    <hyperlink ref="C333" r:id="rId638"/>
+    <hyperlink ref="C334" r:id="rId639"/>
+    <hyperlink ref="C335" r:id="rId640"/>
+    <hyperlink ref="C336" r:id="rId641"/>
+    <hyperlink ref="D336" r:id="rId642"/>
+    <hyperlink ref="C337" r:id="rId643"/>
+    <hyperlink ref="D337" r:id="rId644"/>
+    <hyperlink ref="C338" r:id="rId645"/>
+    <hyperlink ref="D338" r:id="rId646"/>
+    <hyperlink ref="C339" r:id="rId647"/>
+    <hyperlink ref="D339" r:id="rId648"/>
+    <hyperlink ref="C340" r:id="rId649"/>
+    <hyperlink ref="D340" r:id="rId650"/>
+    <hyperlink ref="C341" r:id="rId651"/>
+    <hyperlink ref="D341" r:id="rId652"/>
+    <hyperlink ref="C342" r:id="rId653"/>
+    <hyperlink ref="D342" r:id="rId654"/>
+    <hyperlink ref="C343" r:id="rId655"/>
+    <hyperlink ref="D343" r:id="rId656"/>
+    <hyperlink ref="C344" r:id="rId657"/>
+    <hyperlink ref="D344" r:id="rId658"/>
+    <hyperlink ref="C345" r:id="rId659"/>
+    <hyperlink ref="D345" r:id="rId660"/>
+    <hyperlink ref="C346" r:id="rId661"/>
+    <hyperlink ref="D346" r:id="rId662"/>
+    <hyperlink ref="C347" r:id="rId663"/>
+    <hyperlink ref="D347" r:id="rId664"/>
+    <hyperlink ref="C348" r:id="rId665"/>
+    <hyperlink ref="D348" r:id="rId666"/>
+    <hyperlink ref="C349" r:id="rId667"/>
+    <hyperlink ref="D349" r:id="rId668"/>
+    <hyperlink ref="C350" r:id="rId669"/>
+    <hyperlink ref="D350" r:id="rId670"/>
+    <hyperlink ref="C351" r:id="rId671"/>
+    <hyperlink ref="D351" r:id="rId672"/>
+    <hyperlink ref="C352" r:id="rId673"/>
+    <hyperlink ref="D352" r:id="rId674"/>
+    <hyperlink ref="C353" r:id="rId675"/>
+    <hyperlink ref="D353" r:id="rId676"/>
+    <hyperlink ref="C354" r:id="rId677"/>
+    <hyperlink ref="D354" r:id="rId678"/>
+    <hyperlink ref="C355" r:id="rId679"/>
+    <hyperlink ref="D355" r:id="rId680"/>
+    <hyperlink ref="C356" r:id="rId681"/>
+    <hyperlink ref="D356" r:id="rId682"/>
+    <hyperlink ref="D326" r:id="rId683"/>
+    <hyperlink ref="D327:D335" r:id="rId684" display="Sreerampur"/>
+    <hyperlink ref="D131" r:id="rId685"/>
+    <hyperlink ref="D132:D139" r:id="rId686" display="Coochbehar"/>
+    <hyperlink ref="D64" r:id="rId687"/>
+    <hyperlink ref="D65:D72" r:id="rId688" display="Baharampur"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/West Bengal.xlsx
+++ b/West Bengal.xlsx
@@ -36044,7 +36044,7 @@
   <dimension ref="A1:K356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:D72"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
